--- a/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-4DM-001.xlsx
+++ b/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-4DM-001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5007.770000</t>
+          <t>12469.990000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -524,7 +524,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1538.19</t>
+          <t>1880.01</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1107.60</t>
+          <t>6091.79</t>
         </is>
       </c>
     </row>
@@ -620,13 +620,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tyler Radke</t>
+          <t>Timothy Mohamed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,7 +641,41 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2327.27</t>
+          <t>1528.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tyler Radke</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>69.470000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2935.13</t>
         </is>
       </c>
     </row>
